--- a/wwwroot/XlsIO/PivotTable.xlsx
+++ b/wwwroot/XlsIO/PivotTable.xlsx
@@ -1,24 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Public\Documents\Syncfusion\FileFormats\23.2.4\WPF\SampleBrowser\xlsio\Assets\XlsIO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739219C-DEED-42CC-B674-F2FAB8C94017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15255" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="PivotTable" sheetId="2" r:id="rId2"/>
+    <sheet name="PivotTable" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -109,11 +128,29 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -297,7 +334,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,14 +419,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency_TapePivot" xfId="4"/>
+    <cellStyle name="Currency_TapePivot" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_PivotSizeTest" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="5"/>
-    <cellStyle name="Normal_TapePivot" xfId="3"/>
+    <cellStyle name="Normal_PivotSizeTest" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_TapePivot" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,18 +440,90 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Sridhar" refreshedDate="41017.325868981483" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="49">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pandi Kumar Duraivel" refreshedDate="45257.752497685186" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="49" xr:uid="{18755CF5-085B-4F23-A5B0-F035A49CB978}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H50" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2007-12-15T00:00:00" maxDate="2008-05-08T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2007-12-15T00:00:00" maxDate="2008-05-08T00:00:00" count="49">
+        <d v="2007-12-15T00:00:00"/>
+        <d v="2007-12-18T00:00:00"/>
+        <d v="2007-12-21T00:00:00"/>
+        <d v="2007-12-24T00:00:00"/>
+        <d v="2007-12-27T00:00:00"/>
+        <d v="2007-12-30T00:00:00"/>
+        <d v="2008-01-02T00:00:00"/>
+        <d v="2008-01-05T00:00:00"/>
+        <d v="2008-01-08T00:00:00"/>
+        <d v="2008-01-11T00:00:00"/>
+        <d v="2008-01-14T00:00:00"/>
+        <d v="2008-01-17T00:00:00"/>
+        <d v="2008-01-20T00:00:00"/>
+        <d v="2008-01-23T00:00:00"/>
+        <d v="2008-01-26T00:00:00"/>
+        <d v="2008-01-29T00:00:00"/>
+        <d v="2008-02-01T00:00:00"/>
+        <d v="2008-02-04T00:00:00"/>
+        <d v="2008-02-07T00:00:00"/>
+        <d v="2008-02-10T00:00:00"/>
+        <d v="2008-02-13T00:00:00"/>
+        <d v="2008-02-16T00:00:00"/>
+        <d v="2008-02-19T00:00:00"/>
+        <d v="2008-02-22T00:00:00"/>
+        <d v="2008-02-25T00:00:00"/>
+        <d v="2008-02-28T00:00:00"/>
+        <d v="2008-03-02T00:00:00"/>
+        <d v="2008-03-05T00:00:00"/>
+        <d v="2008-03-08T00:00:00"/>
+        <d v="2008-03-11T00:00:00"/>
+        <d v="2008-03-14T00:00:00"/>
+        <d v="2008-03-17T00:00:00"/>
+        <d v="2008-03-20T00:00:00"/>
+        <d v="2008-03-23T00:00:00"/>
+        <d v="2008-03-26T00:00:00"/>
+        <d v="2008-03-29T00:00:00"/>
+        <d v="2008-04-01T00:00:00"/>
+        <d v="2008-04-04T00:00:00"/>
+        <d v="2008-04-07T00:00:00"/>
+        <d v="2008-04-10T00:00:00"/>
+        <d v="2008-04-13T00:00:00"/>
+        <d v="2008-04-16T00:00:00"/>
+        <d v="2008-04-19T00:00:00"/>
+        <d v="2008-04-22T00:00:00"/>
+        <d v="2008-04-25T00:00:00"/>
+        <d v="2008-04-28T00:00:00"/>
+        <d v="2008-05-01T00:00:00"/>
+        <d v="2008-05-04T00:00:00"/>
+        <d v="2008-05-07T00:00:00"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2007-12-15T00:00:00" endDate="2008-05-08T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;12/15/2007"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;5/8/2008"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
     <cacheField name="Weekday" numFmtId="164">
       <sharedItems/>
@@ -462,9 +577,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="49">
-  <r>
-    <d v="2007-12-15T00:00:00"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
+  <r>
+    <x v="0"/>
     <s v="Saturday"/>
     <x v="0"/>
     <x v="0"/>
@@ -474,7 +589,7 @@
     <n v="1393"/>
   </r>
   <r>
-    <d v="2007-12-18T00:00:00"/>
+    <x v="1"/>
     <s v="Tuesday"/>
     <x v="1"/>
     <x v="1"/>
@@ -484,7 +599,7 @@
     <n v="1699.1499999999999"/>
   </r>
   <r>
-    <d v="2007-12-21T00:00:00"/>
+    <x v="2"/>
     <s v="Friday"/>
     <x v="0"/>
     <x v="2"/>
@@ -494,7 +609,7 @@
     <n v="309.38"/>
   </r>
   <r>
-    <d v="2007-12-24T00:00:00"/>
+    <x v="3"/>
     <s v="Monday"/>
     <x v="2"/>
     <x v="3"/>
@@ -504,7 +619,7 @@
     <n v="1159.4199999999998"/>
   </r>
   <r>
-    <d v="2007-12-27T00:00:00"/>
+    <x v="4"/>
     <s v="Thursday"/>
     <x v="2"/>
     <x v="4"/>
@@ -514,7 +629,7 @@
     <n v="49.900000000000006"/>
   </r>
   <r>
-    <d v="2007-12-30T00:00:00"/>
+    <x v="5"/>
     <s v="Sunday"/>
     <x v="2"/>
     <x v="4"/>
@@ -524,7 +639,7 @@
     <n v="56.81"/>
   </r>
   <r>
-    <d v="2008-01-02T00:00:00"/>
+    <x v="6"/>
     <s v="Wednesday"/>
     <x v="2"/>
     <x v="4"/>
@@ -534,7 +649,7 @@
     <n v="11.94"/>
   </r>
   <r>
-    <d v="2008-01-05T00:00:00"/>
+    <x v="7"/>
     <s v="Saturday"/>
     <x v="0"/>
     <x v="2"/>
@@ -544,7 +659,7 @@
     <n v="49.900000000000006"/>
   </r>
   <r>
-    <d v="2008-01-08T00:00:00"/>
+    <x v="8"/>
     <s v="Tuesday"/>
     <x v="1"/>
     <x v="5"/>
@@ -554,7 +669,7 @@
     <n v="77.61"/>
   </r>
   <r>
-    <d v="2008-01-11T00:00:00"/>
+    <x v="9"/>
     <s v="Friday"/>
     <x v="1"/>
     <x v="5"/>
@@ -564,7 +679,7 @@
     <n v="8.99"/>
   </r>
   <r>
-    <d v="2008-01-14T00:00:00"/>
+    <x v="10"/>
     <s v="Monday"/>
     <x v="1"/>
     <x v="5"/>
@@ -574,7 +689,7 @@
     <n v="399.20000000000005"/>
   </r>
   <r>
-    <d v="2008-01-17T00:00:00"/>
+    <x v="11"/>
     <s v="Thursday"/>
     <x v="1"/>
     <x v="5"/>
@@ -584,7 +699,7 @@
     <n v="101.49"/>
   </r>
   <r>
-    <d v="2008-01-20T00:00:00"/>
+    <x v="12"/>
     <s v="Sunday"/>
     <x v="1"/>
     <x v="5"/>
@@ -594,7 +709,7 @@
     <n v="199.89999999999998"/>
   </r>
   <r>
-    <d v="2008-01-23T00:00:00"/>
+    <x v="13"/>
     <s v="Wednesday"/>
     <x v="1"/>
     <x v="5"/>
@@ -604,7 +719,7 @@
     <n v="74.850000000000009"/>
   </r>
   <r>
-    <d v="2008-01-26T00:00:00"/>
+    <x v="14"/>
     <s v="Saturday"/>
     <x v="1"/>
     <x v="5"/>
@@ -614,7 +729,7 @@
     <n v="3875"/>
   </r>
   <r>
-    <d v="2008-01-29T00:00:00"/>
+    <x v="15"/>
     <s v="Tuesday"/>
     <x v="0"/>
     <x v="0"/>
@@ -624,7 +739,7 @@
     <n v="735.54"/>
   </r>
   <r>
-    <d v="2008-02-01T00:00:00"/>
+    <x v="16"/>
     <s v="Friday"/>
     <x v="1"/>
     <x v="1"/>
@@ -634,7 +749,7 @@
     <n v="548.39"/>
   </r>
   <r>
-    <d v="2008-02-04T00:00:00"/>
+    <x v="17"/>
     <s v="Monday"/>
     <x v="0"/>
     <x v="0"/>
@@ -644,7 +759,7 @@
     <n v="809.1"/>
   </r>
   <r>
-    <d v="2008-02-07T00:00:00"/>
+    <x v="18"/>
     <s v="Thursday"/>
     <x v="2"/>
     <x v="6"/>
@@ -654,7 +769,7 @@
     <n v="859.56999999999994"/>
   </r>
   <r>
-    <d v="2008-02-10T00:00:00"/>
+    <x v="19"/>
     <s v="Sunday"/>
     <x v="1"/>
     <x v="1"/>
@@ -664,7 +779,7 @@
     <n v="159.68"/>
   </r>
   <r>
-    <d v="2008-02-13T00:00:00"/>
+    <x v="20"/>
     <s v="Wednesday"/>
     <x v="1"/>
     <x v="7"/>
@@ -674,7 +789,7 @@
     <n v="47.730000000000004"/>
   </r>
   <r>
-    <d v="2008-02-16T00:00:00"/>
+    <x v="21"/>
     <s v="Saturday"/>
     <x v="2"/>
     <x v="6"/>
@@ -684,7 +799,7 @@
     <n v="415.74"/>
   </r>
   <r>
-    <d v="2008-02-19T00:00:00"/>
+    <x v="22"/>
     <s v="Tuesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -694,7 +809,7 @@
     <n v="710.21"/>
   </r>
   <r>
-    <d v="2008-02-22T00:00:00"/>
+    <x v="23"/>
     <s v="Friday"/>
     <x v="1"/>
     <x v="7"/>
@@ -704,7 +819,7 @@
     <n v="1080"/>
   </r>
   <r>
-    <d v="2008-02-25T00:00:00"/>
+    <x v="24"/>
     <s v="Monday"/>
     <x v="0"/>
     <x v="0"/>
@@ -714,7 +829,7 @@
     <n v="134.73000000000002"/>
   </r>
   <r>
-    <d v="2008-02-28T00:00:00"/>
+    <x v="25"/>
     <s v="Thursday"/>
     <x v="0"/>
     <x v="0"/>
@@ -724,7 +839,7 @@
     <n v="99.949999999999989"/>
   </r>
   <r>
-    <d v="2008-03-02T00:00:00"/>
+    <x v="26"/>
     <s v="Sunday"/>
     <x v="0"/>
     <x v="2"/>
@@ -734,7 +849,7 @@
     <n v="294.41000000000003"/>
   </r>
   <r>
-    <d v="2008-03-05T00:00:00"/>
+    <x v="27"/>
     <s v="Wednesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -744,7 +859,7 @@
     <n v="81.59"/>
   </r>
   <r>
-    <d v="2008-03-08T00:00:00"/>
+    <x v="28"/>
     <s v="Saturday"/>
     <x v="0"/>
     <x v="2"/>
@@ -754,7 +869,7 @@
     <n v="424.15000000000003"/>
   </r>
   <r>
-    <d v="2008-03-11T00:00:00"/>
+    <x v="29"/>
     <s v="Tuesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -764,7 +879,7 @@
     <n v="78.69"/>
   </r>
   <r>
-    <d v="2008-03-14T00:00:00"/>
+    <x v="30"/>
     <s v="Friday"/>
     <x v="2"/>
     <x v="3"/>
@@ -774,7 +889,7 @@
     <n v="80.91"/>
   </r>
   <r>
-    <d v="2008-03-17T00:00:00"/>
+    <x v="31"/>
     <s v="Monday"/>
     <x v="1"/>
     <x v="1"/>
@@ -784,7 +899,7 @@
     <n v="6500"/>
   </r>
   <r>
-    <d v="2008-03-20T00:00:00"/>
+    <x v="32"/>
     <s v="Thursday"/>
     <x v="0"/>
     <x v="0"/>
@@ -794,7 +909,7 @@
     <n v="374.25"/>
   </r>
   <r>
-    <d v="2008-03-23T00:00:00"/>
+    <x v="33"/>
     <s v="Sunday"/>
     <x v="1"/>
     <x v="1"/>
@@ -804,7 +919,7 @@
     <n v="1211.53"/>
   </r>
   <r>
-    <d v="2008-03-26T00:00:00"/>
+    <x v="34"/>
     <s v="Wednesday"/>
     <x v="1"/>
     <x v="1"/>
@@ -814,7 +929,7 @@
     <n v="2059.6999999999998"/>
   </r>
   <r>
-    <d v="2008-03-29T00:00:00"/>
+    <x v="35"/>
     <s v="Saturday"/>
     <x v="1"/>
     <x v="7"/>
@@ -824,7 +939,7 @@
     <n v="2200"/>
   </r>
   <r>
-    <d v="2008-04-01T00:00:00"/>
+    <x v="36"/>
     <s v="Tuesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -834,7 +949,7 @@
     <n v="116.10000000000001"/>
   </r>
   <r>
-    <d v="2008-04-04T00:00:00"/>
+    <x v="37"/>
     <s v="Friday"/>
     <x v="1"/>
     <x v="7"/>
@@ -844,7 +959,7 @@
     <n v="65.67"/>
   </r>
   <r>
-    <d v="2008-04-07T00:00:00"/>
+    <x v="38"/>
     <s v="Monday"/>
     <x v="1"/>
     <x v="7"/>
@@ -854,7 +969,7 @@
     <n v="1059.47"/>
   </r>
   <r>
-    <d v="2008-04-10T00:00:00"/>
+    <x v="39"/>
     <s v="Thursday"/>
     <x v="2"/>
     <x v="3"/>
@@ -864,7 +979,7 @@
     <n v="32.25"/>
   </r>
   <r>
-    <d v="2008-04-13T00:00:00"/>
+    <x v="40"/>
     <s v="Sunday"/>
     <x v="0"/>
     <x v="2"/>
@@ -874,7 +989,7 @@
     <n v="434.13"/>
   </r>
   <r>
-    <d v="2008-04-16T00:00:00"/>
+    <x v="41"/>
     <s v="Wednesday"/>
     <x v="0"/>
     <x v="2"/>
@@ -884,7 +999,7 @@
     <n v="1899.05"/>
   </r>
   <r>
-    <d v="2008-04-19T00:00:00"/>
+    <x v="42"/>
     <s v="Saturday"/>
     <x v="2"/>
     <x v="3"/>
@@ -894,7 +1009,7 @@
     <n v="339.32"/>
   </r>
   <r>
-    <d v="2008-04-22T00:00:00"/>
+    <x v="43"/>
     <s v="Tuesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -904,7 +1019,7 @@
     <n v="94.81"/>
   </r>
   <r>
-    <d v="2008-04-25T00:00:00"/>
+    <x v="44"/>
     <s v="Friday"/>
     <x v="2"/>
     <x v="3"/>
@@ -914,7 +1029,7 @@
     <n v="113.81"/>
   </r>
   <r>
-    <d v="2008-04-28T00:00:00"/>
+    <x v="45"/>
     <s v="Monday"/>
     <x v="2"/>
     <x v="3"/>
@@ -924,7 +1039,7 @@
     <n v="113.81"/>
   </r>
   <r>
-    <d v="2008-05-01T00:00:00"/>
+    <x v="46"/>
     <s v="Thursday"/>
     <x v="2"/>
     <x v="3"/>
@@ -934,7 +1049,7 @@
     <n v="94.81"/>
   </r>
   <r>
-    <d v="2008-05-04T00:00:00"/>
+    <x v="47"/>
     <s v="Sunday"/>
     <x v="2"/>
     <x v="3"/>
@@ -944,7 +1059,7 @@
     <n v="94.81"/>
   </r>
   <r>
-    <d v="2008-05-07T00:00:00"/>
+    <x v="48"/>
     <s v="Wednesday"/>
     <x v="2"/>
     <x v="3"/>
@@ -957,12 +1072,30 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="127" outline="1" outlineData="1">
-  <location ref="A1:J27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75F66BD1-ABED-4BC3-A239-34526C168E1E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:J55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField/>
-    <pivotField/>
-    <pivotField axis="axisRow">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="2"/>
@@ -970,7 +1103,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol">
+    <pivotField axis="axisCol" showAll="0">
       <items count="9">
         <item x="4"/>
         <item x="3"/>
@@ -983,7 +1116,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow">
+    <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="1"/>
         <item x="5"/>
@@ -995,86 +1128,171 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1"/>
-    <pivotField/>
-    <pivotField/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="2"/>
     <field x="4"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="53">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
     <i r="1">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="4"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="5"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="6"/>
     </i>
-    <i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
+    <i r="2">
       <x v="2"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -1115,7 +1333,15 @@
   <dataFields count="1">
     <dataField name="Sum of Units" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="0"/>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -1403,23 +1629,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>39431</v>
       </c>
@@ -1473,7 +1699,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>39434</v>
       </c>
@@ -1501,7 +1727,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>39437</v>
       </c>
@@ -1529,7 +1755,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>39440</v>
       </c>
@@ -1557,7 +1783,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>39443</v>
       </c>
@@ -1585,7 +1811,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>39446</v>
       </c>
@@ -1613,7 +1839,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>39449</v>
       </c>
@@ -1641,7 +1867,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>39452</v>
       </c>
@@ -1669,7 +1895,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>39455</v>
       </c>
@@ -1697,7 +1923,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>39458</v>
       </c>
@@ -1725,7 +1951,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>39461</v>
       </c>
@@ -1753,7 +1979,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>39464</v>
       </c>
@@ -1781,7 +2007,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>39467</v>
       </c>
@@ -1809,7 +2035,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>39470</v>
       </c>
@@ -1837,7 +2063,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>39473</v>
       </c>
@@ -1865,7 +2091,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>39476</v>
       </c>
@@ -1893,7 +2119,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>39479</v>
       </c>
@@ -1921,7 +2147,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>39482</v>
       </c>
@@ -1949,7 +2175,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>39485</v>
       </c>
@@ -1977,7 +2203,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>39488</v>
       </c>
@@ -2005,7 +2231,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>39491</v>
       </c>
@@ -2033,7 +2259,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>39494</v>
       </c>
@@ -2061,7 +2287,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>39497</v>
       </c>
@@ -2089,7 +2315,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>39500</v>
       </c>
@@ -2117,7 +2343,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>39503</v>
       </c>
@@ -2145,7 +2371,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>39506</v>
       </c>
@@ -2173,7 +2399,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>39509</v>
       </c>
@@ -2201,7 +2427,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>39512</v>
       </c>
@@ -2229,7 +2455,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>39515</v>
       </c>
@@ -2257,7 +2483,7 @@
         <v>424.15000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>39518</v>
       </c>
@@ -2285,7 +2511,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>39521</v>
       </c>
@@ -2313,7 +2539,7 @@
         <v>80.91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>39524</v>
       </c>
@@ -2341,12 +2567,12 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>39527</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" ref="B34:B65" si="2">TEXT(A34,"dddd")</f>
+        <f t="shared" ref="B34:B50" si="2">TEXT(A34,"dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2365,11 +2591,11 @@
         <v>4.99</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" ref="H34:H65" si="3">G34*F34</f>
+        <f t="shared" ref="H34:H50" si="3">G34*F34</f>
         <v>374.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>39530</v>
       </c>
@@ -2397,7 +2623,7 @@
         <v>1211.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>39533</v>
       </c>
@@ -2425,7 +2651,7 @@
         <v>2059.6999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>39536</v>
       </c>
@@ -2453,7 +2679,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>39539</v>
       </c>
@@ -2481,7 +2707,7 @@
         <v>116.10000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>39542</v>
       </c>
@@ -2509,7 +2735,7 @@
         <v>65.67</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>39545</v>
       </c>
@@ -2537,7 +2763,7 @@
         <v>1059.47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>39548</v>
       </c>
@@ -2565,7 +2791,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>39551</v>
       </c>
@@ -2593,7 +2819,7 @@
         <v>434.13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>39554</v>
       </c>
@@ -2621,7 +2847,7 @@
         <v>1899.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>39557</v>
       </c>
@@ -2649,7 +2875,7 @@
         <v>339.32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>39560</v>
       </c>
@@ -2677,7 +2903,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>39563</v>
       </c>
@@ -2705,7 +2931,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>39566</v>
       </c>
@@ -2733,7 +2959,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>39569</v>
       </c>
@@ -2761,7 +2987,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>39572</v>
       </c>
@@ -2789,7 +3015,7 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="21">
         <v>39575</v>
       </c>
@@ -2824,14 +3050,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5F3EE5-0E6E-4025-AE49-FB4542E479B5}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
@@ -2839,7 +3079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
@@ -2871,7 +3111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
@@ -2891,8 +3131,8 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="29"/>
@@ -2911,57 +3151,69 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>22</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="E5" s="29">
+        <v>5</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>25</v>
+      <c r="J5" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="29">
+        <v>182</v>
+      </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>21</v>
+      <c r="J6" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="29">
+        <v>85</v>
+      </c>
+      <c r="E7" s="29">
+        <v>90</v>
+      </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>18</v>
+      <c r="J7" s="29">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="29">
-        <v>85</v>
-      </c>
+      <c r="D8" s="29"/>
       <c r="E8" s="29">
         <v>90</v>
       </c>
@@ -2970,17 +3222,17 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -2988,363 +3240,888 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29">
-        <v>59</v>
-      </c>
-      <c r="E10" s="29">
-        <v>848</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="29">
-        <v>35</v>
-      </c>
-      <c r="C11" s="29">
-        <v>545</v>
-      </c>
-      <c r="D11" s="29"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29">
+        <v>10</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="29">
-        <v>69</v>
-      </c>
+      <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="29">
         <v>10</v>
       </c>
-      <c r="C12" s="29">
-        <v>232</v>
-      </c>
-      <c r="D12" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>62</v>
+      </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="29">
+        <v>59</v>
+      </c>
+      <c r="E13" s="29">
+        <v>848</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>25</v>
+      <c r="J13" s="29">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="29">
-        <v>38</v>
-      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29">
+        <v>46</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="29">
+        <v>27</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>18</v>
+      <c r="J15" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="29">
-        <v>58</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29">
+        <v>59</v>
+      </c>
+      <c r="E16" s="29">
+        <v>75</v>
+      </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="29">
-        <v>43</v>
-      </c>
+      <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="29">
+        <v>700</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="29">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="29">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18" s="29">
-        <v>217</v>
+        <v>545</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="29">
+        <v>10</v>
+      </c>
+      <c r="C19" s="29">
+        <v>232</v>
+      </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="29">
-        <v>413</v>
-      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="29">
-        <v>203</v>
-      </c>
-      <c r="I19" s="29">
-        <v>227</v>
-      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="29">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>13</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="29">
+        <v>79</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="29">
-        <v>146</v>
-      </c>
+      <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="29">
-        <v>53</v>
-      </c>
-      <c r="I20" s="29">
-        <v>62</v>
-      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="29">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="C21" s="29">
+        <v>9</v>
+      </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="29">
-        <v>52</v>
-      </c>
+      <c r="F21" s="29"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="29">
-        <v>8</v>
-      </c>
-      <c r="I21" s="29">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="29">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="29">
+        <v>87</v>
+      </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>21</v>
+      <c r="J22" s="29">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="29">
+        <v>57</v>
+      </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29">
-        <v>39</v>
-      </c>
+      <c r="I23" s="29"/>
       <c r="J23" s="29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="29"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="29">
+        <v>10</v>
+      </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="29">
-        <v>33</v>
-      </c>
+      <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="29">
+        <v>38</v>
+      </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="29">
-        <v>80</v>
-      </c>
+      <c r="I25" s="29"/>
       <c r="J25" s="29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="29">
+        <v>38</v>
+      </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="29">
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29">
+        <v>58</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29">
+        <v>43</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29">
+        <v>43</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29">
+        <v>58</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="29">
+        <v>25</v>
+      </c>
+      <c r="C30" s="29">
+        <v>217</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29">
+        <v>26</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="29">
+        <v>6</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29">
+        <v>26</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29">
+        <v>102</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29">
+        <v>115</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29">
+        <v>19</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29">
+        <v>413</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29">
+        <v>203</v>
+      </c>
+      <c r="I36" s="29">
+        <v>227</v>
+      </c>
+      <c r="J36" s="29">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29">
+        <v>146</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29">
+        <v>53</v>
+      </c>
+      <c r="I37" s="29">
+        <v>62</v>
+      </c>
+      <c r="J37" s="29">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
+        <v>62</v>
+      </c>
+      <c r="J38" s="29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29">
+        <v>61</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29">
+        <v>53</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29">
+        <v>85</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29">
+        <v>52</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29">
+        <v>8</v>
+      </c>
+      <c r="I42" s="29">
+        <v>31</v>
+      </c>
+      <c r="J42" s="29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
+        <v>31</v>
+      </c>
+      <c r="J43" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29">
+        <v>52</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29">
+        <v>8</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29">
+        <v>39</v>
+      </c>
+      <c r="J45" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29">
+        <v>39</v>
+      </c>
+      <c r="J46" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29">
+        <v>33</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29">
+        <v>33</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29">
+        <v>80</v>
+      </c>
+      <c r="J49" s="29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29">
+        <v>80</v>
+      </c>
+      <c r="J50" s="29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29">
         <v>215</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29">
+      <c r="G51" s="29"/>
+      <c r="H51" s="29">
         <v>109</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I51" s="29">
         <v>15</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J51" s="29">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29">
+        <v>15</v>
+      </c>
+      <c r="J52" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29">
+        <v>32</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29">
+        <v>109</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29">
+        <v>183</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B55" s="29">
         <v>35</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C55" s="29">
         <v>545</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D55" s="29">
         <v>398</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E55" s="29">
         <v>943</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F55" s="29">
         <v>413</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G55" s="29">
         <v>69</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H55" s="29">
         <v>203</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I55" s="29">
         <v>227</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J55" s="29">
         <v>2833</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>